--- a/src/main/java/com/cn/file/专属女朋友(2).xlsx
+++ b/src/main/java/com/cn/file/专属女朋友(2).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java开发\eclipse\com.cn.IDEA\desc\src\main\java\com\cn\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A803689D-360B-41B9-851C-6DD041EEEB5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11325" yWindow="450" windowWidth="2400" windowHeight="9780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="230">
   <si>
     <t>用户表(user)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -898,12 +904,146 @@
     <t>操作时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>信封传输数据表(envelope)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信封传输主题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>state</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e_js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>state</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送人编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>js_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受人编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看状态（已查看、未查看）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送状态（成功、失败）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,9 +1203,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,6 +1210,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,21 +1521,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="O83" sqref="O83"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="L102" sqref="L102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -1413,18 +1553,18 @@
     <col min="15" max="15" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1447,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1468,7 +1608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +1629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +1648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1524,17 +1664,17 @@
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1572,7 +1712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1600,7 +1740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I9" s="3" t="s">
         <v>48</v>
       </c>
@@ -1621,7 +1761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1651,7 +1791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1681,7 +1821,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1702,7 +1842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1723,7 +1863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1742,7 +1882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1759,7 +1899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1767,17 +1907,17 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1800,7 +1940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I18" s="3" t="s">
         <v>47</v>
       </c>
@@ -1821,7 +1961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -1851,7 +1991,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1893,7 +2033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1921,7 +2061,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -1942,7 +2082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1961,7 +2101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -1978,7 +2118,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -1999,7 +2139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -2020,7 +2160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -2029,28 +2169,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
@@ -2070,7 +2210,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -2114,7 +2254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2154,7 +2294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -2192,7 +2332,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -2228,7 +2368,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
@@ -2264,7 +2404,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
@@ -2300,7 +2440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>67</v>
       </c>
@@ -2336,7 +2476,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>69</v>
       </c>
@@ -2370,7 +2510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
@@ -2394,7 +2534,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>74</v>
       </c>
@@ -2411,7 +2551,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
@@ -2439,7 +2579,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
@@ -2479,7 +2619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
@@ -2517,7 +2657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>81</v>
       </c>
@@ -2551,7 +2691,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>82</v>
       </c>
@@ -2587,7 +2727,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2613,7 +2753,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2639,7 +2779,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I49" s="3" t="s">
         <v>81</v>
       </c>
@@ -2656,7 +2796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>104</v>
       </c>
@@ -2684,7 +2824,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -2714,7 +2854,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>105</v>
       </c>
@@ -2735,7 +2875,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>110</v>
       </c>
@@ -2754,7 +2894,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
@@ -2771,7 +2911,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>117</v>
       </c>
@@ -2799,7 +2939,7 @@
       <c r="N55" s="5"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>119</v>
       </c>
@@ -2839,7 +2979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -2867,7 +3007,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -2891,7 +3031,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I59" s="3" t="s">
         <v>113</v>
       </c>
@@ -2908,7 +3048,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I60" s="3" t="s">
         <v>117</v>
       </c>
@@ -2927,7 +3067,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>135</v>
       </c>
@@ -2953,7 +3093,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -2991,7 +3131,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>136</v>
       </c>
@@ -3029,7 +3169,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>137</v>
       </c>
@@ -3065,7 +3205,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>138</v>
       </c>
@@ -3099,7 +3239,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>139</v>
       </c>
@@ -3125,7 +3265,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>143</v>
       </c>
@@ -3144,7 +3284,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>145</v>
       </c>
@@ -3163,7 +3303,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -3172,7 +3312,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I71" s="4" t="s">
         <v>161</v>
       </c>
@@ -3183,8 +3323,8 @@
       <c r="N71" s="5"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
         <v>191</v>
       </c>
       <c r="B72" s="5"/>
@@ -3215,7 +3355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -3257,7 +3397,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>147</v>
       </c>
@@ -3295,7 +3435,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>148</v>
       </c>
@@ -3331,7 +3471,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>150</v>
       </c>
@@ -3365,7 +3505,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>139</v>
       </c>
@@ -3397,7 +3537,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>152</v>
       </c>
@@ -3431,7 +3571,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>155</v>
       </c>
@@ -3467,7 +3607,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>157</v>
       </c>
@@ -3491,7 +3631,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>159</v>
       </c>
@@ -3515,7 +3655,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -3524,7 +3664,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -3533,7 +3673,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>173</v>
       </c>
@@ -3543,7 +3683,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
-      <c r="I85" s="7" t="s">
+      <c r="I85" s="10" t="s">
         <v>192</v>
       </c>
       <c r="J85" s="5"/>
@@ -3553,7 +3693,7 @@
       <c r="N85" s="5"/>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -3597,7 +3737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>174</v>
       </c>
@@ -3637,7 +3777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
@@ -3673,7 +3813,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>177</v>
       </c>
@@ -3709,7 +3849,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>180</v>
       </c>
@@ -3745,7 +3885,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>182</v>
       </c>
@@ -3779,7 +3919,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>184</v>
       </c>
@@ -3815,7 +3955,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>139</v>
       </c>
@@ -3849,7 +3989,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>186</v>
       </c>
@@ -3881,7 +4021,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>188</v>
       </c>
@@ -3913,7 +4053,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -3922,8 +4062,226 @@
       <c r="F96" s="2"/>
       <c r="G96" s="3"/>
     </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="2">
+        <v>11</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="2">
+        <v>255</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="2">
+        <v>255</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="2">
+        <v>255</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="2">
+        <v>11</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="2">
+        <v>11</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="2">
+        <v>11</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="2">
+        <v>11</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A100:G100"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="I55:O55"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="I71:O71"/>
+    <mergeCell ref="I85:O85"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:G10"/>
@@ -3934,12 +4292,6 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="I31:O31"/>
     <mergeCell ref="I42:O42"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="I55:O55"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="I71:O71"/>
-    <mergeCell ref="I85:O85"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3948,12 +4300,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/com/cn/file/专属女朋友(2).xlsx
+++ b/src/main/java/com/cn/file/专属女朋友(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java开发\eclipse\com.cn.IDEA\desc\src\main\java\com\cn\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A803689D-360B-41B9-851C-6DD041EEEB5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02529499-2992-4519-AC56-E55A1CFF905B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="243">
   <si>
     <t>用户表(user)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -885,10 +885,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>返回值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -926,10 +922,6 @@
   </si>
   <si>
     <t>传输内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传输类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1036,6 +1028,114 @@
   </si>
   <si>
     <t>发送状态（成功、失败）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输类型表(transportType)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>archar</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输类型名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输类型描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_creattime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>atetime</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输类型创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_state</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输类型状态（有效、无效）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输类型（传输类型编号）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1175,13 +1275,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1194,13 +1322,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,7 +1343,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="L102" sqref="L102"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,15 +1700,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1664,15 +1810,15 @@
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1762,7 +1908,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="5"/>
@@ -1907,15 +2053,15 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I17" s="1" t="s">
@@ -1962,7 +2108,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="5"/>
@@ -2170,28 +2316,28 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="5"/>
@@ -2200,7 +2346,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="7" t="s">
         <v>83</v>
       </c>
       <c r="J31" s="5"/>
@@ -2569,7 +2715,7 @@
       <c r="G42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="7" t="s">
         <v>190</v>
       </c>
       <c r="J42" s="5"/>
@@ -2797,7 +2943,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B50" s="5"/>
@@ -2929,7 +3075,7 @@
       <c r="G55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J55" s="5"/>
@@ -3068,7 +3214,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B61" s="5"/>
@@ -3313,7 +3459,7 @@
       <c r="G69" s="3"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I71" s="4" t="s">
+      <c r="I71" s="7" t="s">
         <v>161</v>
       </c>
       <c r="J71" s="5"/>
@@ -3324,7 +3470,7 @@
       <c r="O71" s="6"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B72" s="5"/>
@@ -3674,7 +3820,7 @@
       <c r="G83" s="3"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B85" s="5"/>
@@ -3683,7 +3829,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
-      <c r="I85" s="10" t="s">
+      <c r="I85" s="4" t="s">
         <v>192</v>
       </c>
       <c r="J85" s="5"/>
@@ -3916,7 +4062,7 @@
       <c r="M91" s="3"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2" t="s">
-        <v>206</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -3952,7 +4098,7 @@
       <c r="M92" s="3"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
@@ -3986,7 +4132,7 @@
       <c r="M93" s="3"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -4018,7 +4164,7 @@
       <c r="M94" s="3"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
@@ -4050,7 +4196,7 @@
       <c r="M95" s="3"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
@@ -4062,9 +4208,9 @@
       <c r="F96" s="2"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="10" t="s">
-        <v>211</v>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4072,8 +4218,17 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I100" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -4095,10 +4250,31 @@
       <c r="G101" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>9</v>
@@ -4116,10 +4292,29 @@
       <c r="G102" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I102" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" s="2">
+        <v>11</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>14</v>
@@ -4133,33 +4328,67 @@
       <c r="E103" s="3"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K103" s="2">
+        <v>255</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M103" s="3"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="2">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K104" s="2">
+        <v>255</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>14</v>
@@ -4173,10 +4402,25 @@
       <c r="E105" s="3"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K105" s="2"/>
+      <c r="L105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M105" s="3"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>81</v>
       </c>
@@ -4189,13 +4433,30 @@
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I106" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K106" s="11">
+        <v>11</v>
+      </c>
+      <c r="L106" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M106" s="12"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>9</v>
@@ -4209,12 +4470,19 @@
       <c r="E107" s="3"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="I107" s="13"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>9</v>
@@ -4228,60 +4496,90 @@
       <c r="E108" s="3"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="2">
+        <v>11</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C109" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C110" s="2">
         <v>11</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
-        <v>227</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="15"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="3"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A100:G100"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="I55:O55"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="I71:O71"/>
-    <mergeCell ref="I85:O85"/>
+  <mergeCells count="18">
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:G10"/>
@@ -4292,6 +4590,14 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="I31:O31"/>
     <mergeCell ref="I42:O42"/>
+    <mergeCell ref="A100:G100"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="I55:O55"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="I71:O71"/>
+    <mergeCell ref="I85:O85"/>
+    <mergeCell ref="I100:O100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/com/cn/file/专属女朋友(2).xlsx
+++ b/src/main/java/com/cn/file/专属女朋友(2).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java开发\eclipse\com.cn.IDEA\desc\src\main\java\com\cn\file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02529499-2992-4519-AC56-E55A1CFF905B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="283">
   <si>
     <t>用户表(user)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1138,12 +1132,196 @@
     <t>传输类型（传输类型编号）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>账单记录信息表(billingRecords)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double/bigdemer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单记录金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单记录内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单状态(有效,无效)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到信息表(signin)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到赠送金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到状态(已签到,未签到)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币数据表(gold)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币状态(已获得,未获得,限时,失效)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使用类型(活动,都可以用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_tapy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_astrict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币限制(多少能用,那些操作能使用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,27 +1500,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,6 +1516,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1667,29 +1845,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.75" bestFit="1" customWidth="1"/>
@@ -1699,18 +1877,18 @@
     <col min="15" max="15" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1733,7 +1911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1754,7 +1932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +1953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1794,7 +1972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1810,17 +1988,17 @@
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1886,7 +2064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="I9" s="3" t="s">
         <v>48</v>
       </c>
@@ -1907,16 +2085,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
       <c r="I10" s="3" t="s">
         <v>49</v>
       </c>
@@ -1937,7 +2115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1967,7 +2145,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1988,7 +2166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2009,7 +2187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -2028,7 +2206,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -2045,7 +2223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2053,17 +2231,17 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="I17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2086,7 +2264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="I18" s="3" t="s">
         <v>47</v>
       </c>
@@ -2107,16 +2285,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:17">
+      <c r="A19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
       <c r="I19" s="3" t="s">
         <v>48</v>
       </c>
@@ -2137,7 +2315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2179,7 +2357,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -2207,7 +2385,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -2228,7 +2406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -2247,7 +2425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -2264,7 +2442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -2285,7 +2463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -2306,7 +2484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="14.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -2315,48 +2493,48 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:17">
+      <c r="A28" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="I31" s="7" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="I31" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -2400,7 +2578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2440,7 +2618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -2478,7 +2656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -2514,7 +2692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
@@ -2550,7 +2728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
@@ -2586,7 +2764,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="3" t="s">
         <v>67</v>
       </c>
@@ -2622,7 +2800,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="3" t="s">
         <v>69</v>
       </c>
@@ -2656,7 +2834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
@@ -2680,7 +2858,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" s="3" t="s">
         <v>74</v>
       </c>
@@ -2697,7 +2875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
@@ -2715,17 +2893,17 @@
       <c r="G42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="6"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
@@ -2765,7 +2943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
@@ -2803,7 +2981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" s="3" t="s">
         <v>81</v>
       </c>
@@ -2837,7 +3015,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" s="3" t="s">
         <v>82</v>
       </c>
@@ -2873,7 +3051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
@@ -2899,7 +3077,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -2925,7 +3103,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="I49" s="3" t="s">
         <v>81</v>
       </c>
@@ -2942,16 +3120,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:15">
+      <c r="A50" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
       <c r="I50" s="3" t="s">
         <v>30</v>
       </c>
@@ -2970,7 +3148,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -3000,7 +3178,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52" s="3" t="s">
         <v>105</v>
       </c>
@@ -3021,7 +3199,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53" s="3" t="s">
         <v>110</v>
       </c>
@@ -3040,7 +3218,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
@@ -3057,7 +3235,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" s="3" t="s">
         <v>117</v>
       </c>
@@ -3075,17 +3253,17 @@
       <c r="G55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="6"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="12"/>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="3" t="s">
         <v>119</v>
       </c>
@@ -3125,7 +3303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
@@ -3153,7 +3331,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -3177,7 +3355,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="I59" s="3" t="s">
         <v>113</v>
       </c>
@@ -3194,7 +3372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="I60" s="3" t="s">
         <v>117</v>
       </c>
@@ -3213,16 +3391,16 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:15">
+      <c r="A61" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="6"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
       <c r="I61" s="3" t="s">
         <v>115</v>
       </c>
@@ -3239,7 +3417,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -3277,7 +3455,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="A63" s="3" t="s">
         <v>136</v>
       </c>
@@ -3315,7 +3493,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64" s="3" t="s">
         <v>137</v>
       </c>
@@ -3351,7 +3529,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65" s="3" t="s">
         <v>138</v>
       </c>
@@ -3385,7 +3563,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15">
       <c r="A66" s="3" t="s">
         <v>139</v>
       </c>
@@ -3411,7 +3589,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="A67" s="3" t="s">
         <v>143</v>
       </c>
@@ -3430,7 +3608,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="A68" s="3" t="s">
         <v>145</v>
       </c>
@@ -3449,7 +3627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="14.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -3458,27 +3636,27 @@
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I71" s="7" t="s">
+    <row r="71" spans="1:15">
+      <c r="I71" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="6"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="12"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="6"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
       <c r="I72" s="1" t="s">
         <v>1</v>
       </c>
@@ -3501,7 +3679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -3543,7 +3721,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15">
       <c r="A74" s="3" t="s">
         <v>147</v>
       </c>
@@ -3581,7 +3759,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15">
       <c r="A75" s="3" t="s">
         <v>148</v>
       </c>
@@ -3617,7 +3795,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15">
       <c r="A76" s="3" t="s">
         <v>150</v>
       </c>
@@ -3651,7 +3829,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15">
       <c r="A77" s="3" t="s">
         <v>139</v>
       </c>
@@ -3683,7 +3861,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15">
       <c r="A78" s="3" t="s">
         <v>152</v>
       </c>
@@ -3717,7 +3895,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15">
       <c r="A79" s="3" t="s">
         <v>155</v>
       </c>
@@ -3753,7 +3931,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15">
       <c r="A80" s="3" t="s">
         <v>157</v>
       </c>
@@ -3777,7 +3955,7 @@
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15">
       <c r="A81" s="3" t="s">
         <v>159</v>
       </c>
@@ -3801,7 +3979,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="14.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -3810,7 +3988,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="14.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -3819,27 +3997,27 @@
       <c r="F83" s="2"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:15">
+      <c r="A85" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="6"/>
-      <c r="I85" s="4" t="s">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="12"/>
+      <c r="I85" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="6"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="12"/>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -3883,7 +4061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15">
       <c r="A87" s="3" t="s">
         <v>174</v>
       </c>
@@ -3923,7 +4101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15">
       <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
@@ -3959,7 +4137,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15">
       <c r="A89" s="3" t="s">
         <v>177</v>
       </c>
@@ -3995,7 +4173,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" s="3" t="s">
         <v>180</v>
       </c>
@@ -4031,7 +4209,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15">
       <c r="A91" s="3" t="s">
         <v>182</v>
       </c>
@@ -4065,7 +4243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="A92" s="3" t="s">
         <v>184</v>
       </c>
@@ -4101,7 +4279,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="A93" s="3" t="s">
         <v>139</v>
       </c>
@@ -4135,7 +4313,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15">
       <c r="A94" s="3" t="s">
         <v>186</v>
       </c>
@@ -4167,7 +4345,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95" s="3" t="s">
         <v>188</v>
       </c>
@@ -4199,7 +4377,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="14.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -4208,27 +4386,27 @@
       <c r="F96" s="2"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+    <row r="100" spans="1:15">
+      <c r="A100" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="6"/>
-      <c r="I100" s="4" t="s">
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
+      <c r="I100" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="6"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="12"/>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -4272,7 +4450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="A102" s="2" t="s">
         <v>211</v>
       </c>
@@ -4312,7 +4490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="A103" s="2" t="s">
         <v>212</v>
       </c>
@@ -4348,7 +4526,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="A104" s="2" t="s">
         <v>216</v>
       </c>
@@ -4386,7 +4564,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15">
       <c r="A105" s="2" t="s">
         <v>214</v>
       </c>
@@ -4420,7 +4598,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15">
       <c r="A106" s="3" t="s">
         <v>81</v>
       </c>
@@ -4436,25 +4614,25 @@
       <c r="G106" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I106" s="11" t="s">
+      <c r="I106" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="J106" s="11" t="s">
+      <c r="J106" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="K106" s="11">
-        <v>11</v>
-      </c>
-      <c r="L106" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M106" s="12"/>
-      <c r="N106" s="11"/>
-      <c r="O106" s="11" t="s">
+      <c r="K106" s="4">
+        <v>11</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M106" s="5"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" s="2" t="s">
         <v>217</v>
       </c>
@@ -4472,15 +4650,15 @@
       <c r="G107" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I107" s="13"/>
-      <c r="J107" s="14"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="14"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I107" s="6"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="2" t="s">
         <v>218</v>
       </c>
@@ -4498,15 +4676,15 @@
       <c r="G108" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="16"/>
-      <c r="M108" s="16"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I108" s="8"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="2" t="s">
         <v>220</v>
       </c>
@@ -4526,15 +4704,15 @@
       <c r="G109" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="2" t="s">
         <v>224</v>
       </c>
@@ -4554,15 +4732,15 @@
       <c r="G110" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="15"/>
-      <c r="O110" s="15"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2"/>
@@ -4570,16 +4748,552 @@
       <c r="E111" s="3"/>
       <c r="F111" s="2"/>
       <c r="G111" s="3"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="16"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="16"/>
+      <c r="I111" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="12"/>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="I112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="I113" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="2">
+        <v>11</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="12"/>
+      <c r="I114" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K114" s="2"/>
+      <c r="L114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M114" s="3"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K115" s="2">
+        <v>255</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="2">
+        <v>11</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M116" s="3"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" s="2"/>
+      <c r="L117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M117" s="3"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" s="2">
+        <v>255</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K118" s="2">
+        <v>11</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="2"/>
+      <c r="L119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M119" s="3"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="2">
+        <v>11</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="I124" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="12"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="3"/>
+      <c r="I125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="I126" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K126" s="2">
+        <v>11</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="I127" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K127" s="2">
+        <v>11</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="I128" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K128" s="2"/>
+      <c r="L128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M128" s="3"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="129" spans="9:15">
+      <c r="I129" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M129" s="3"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="9:15">
+      <c r="I130" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K130" s="2"/>
+      <c r="L130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M130" s="3"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="9:15">
+      <c r="I131" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K131" s="2">
+        <v>11</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="9:15">
+      <c r="I132" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K132" s="2">
+        <v>255</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="133" spans="9:15">
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="9:15">
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="I111:O111"/>
+    <mergeCell ref="I124:O124"/>
+    <mergeCell ref="A100:G100"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="I55:O55"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="I71:O71"/>
+    <mergeCell ref="I85:O85"/>
+    <mergeCell ref="I100:O100"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:G10"/>
@@ -4590,14 +5304,6 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="I31:O31"/>
     <mergeCell ref="I42:O42"/>
-    <mergeCell ref="A100:G100"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="I55:O55"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="I71:O71"/>
-    <mergeCell ref="I85:O85"/>
-    <mergeCell ref="I100:O100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4606,12 +5312,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/com/cn/file/专属女朋友(2).xlsx
+++ b/src/main/java/com/cn/file/专属女朋友(2).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="305">
   <si>
     <t>用户表(user)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1314,6 +1314,130 @@
   </si>
   <si>
     <t>金币限制(多少能用,那些操作能使用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类图片数据表(classifiedImage)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类主题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i_state</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片状态(有效\过期)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1518,13 +1642,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1534,9 +1661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1845,7 +1969,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1853,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q134"/>
+  <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1878,15 +2002,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
@@ -1988,15 +2112,15 @@
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
@@ -2086,7 +2210,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="11"/>
@@ -2231,15 +2355,15 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:17">
       <c r="I17" s="1" t="s">
@@ -2286,7 +2410,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="11"/>
@@ -2484,7 +2608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -2494,28 +2618,28 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="11"/>
@@ -2524,7 +2648,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="13" t="s">
         <v>83</v>
       </c>
       <c r="J31" s="11"/>
@@ -2893,7 +3017,7 @@
       <c r="G42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="13" t="s">
         <v>190</v>
       </c>
       <c r="J42" s="11"/>
@@ -3121,7 +3245,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B50" s="11"/>
@@ -3253,7 +3377,7 @@
       <c r="G55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="13" t="s">
         <v>121</v>
       </c>
       <c r="J55" s="11"/>
@@ -3392,7 +3516,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="13" t="s">
         <v>135</v>
       </c>
       <c r="B61" s="11"/>
@@ -3627,7 +3751,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="2"/>
@@ -3637,7 +3761,7 @@
       <c r="G69" s="3"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="13" t="s">
         <v>161</v>
       </c>
       <c r="J71" s="11"/>
@@ -3648,7 +3772,7 @@
       <c r="O71" s="12"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="10" t="s">
         <v>191</v>
       </c>
       <c r="B72" s="11"/>
@@ -3979,7 +4103,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
@@ -3988,7 +4112,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="14.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -3998,7 +4122,7 @@
       <c r="G83" s="3"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="13" t="s">
         <v>173</v>
       </c>
       <c r="B85" s="11"/>
@@ -4007,7 +4131,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="12"/>
-      <c r="I85" s="16" t="s">
+      <c r="I85" s="10" t="s">
         <v>192</v>
       </c>
       <c r="J85" s="11"/>
@@ -4377,7 +4501,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="14.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
@@ -4387,7 +4511,7 @@
       <c r="G96" s="3"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="10" t="s">
         <v>210</v>
       </c>
       <c r="B100" s="11"/>
@@ -4396,7 +4520,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="12"/>
-      <c r="I100" s="16" t="s">
+      <c r="I100" s="10" t="s">
         <v>228</v>
       </c>
       <c r="J100" s="11"/>
@@ -4748,7 +4872,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="2"/>
       <c r="G111" s="3"/>
-      <c r="I111" s="16" t="s">
+      <c r="I111" s="10" t="s">
         <v>259</v>
       </c>
       <c r="J111" s="11"/>
@@ -4803,7 +4927,7 @@
       </c>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="10" t="s">
         <v>243</v>
       </c>
       <c r="B114" s="11"/>
@@ -5092,7 +5216,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
-      <c r="I124" s="16" t="s">
+      <c r="I124" s="10" t="s">
         <v>266</v>
       </c>
       <c r="J124" s="11"/>
@@ -5191,7 +5315,16 @@
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="9:15">
+    <row r="129" spans="1:15">
+      <c r="A129" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="12"/>
       <c r="I129" s="2" t="s">
         <v>275</v>
       </c>
@@ -5208,7 +5341,28 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="9:15">
+    <row r="130" spans="1:15">
+      <c r="A130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I130" s="3" t="s">
         <v>81</v>
       </c>
@@ -5225,7 +5379,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="9:15">
+    <row r="131" spans="1:15">
+      <c r="A131" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="2">
+        <v>11</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="I131" s="2" t="s">
         <v>280</v>
       </c>
@@ -5244,7 +5417,24 @@
         <v>279</v>
       </c>
     </row>
-    <row r="132" spans="9:15">
+    <row r="132" spans="1:15">
+      <c r="A132" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C132" s="2">
+        <v>11</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="I132" s="2" t="s">
         <v>281</v>
       </c>
@@ -5263,7 +5453,24 @@
         <v>282</v>
       </c>
     </row>
-    <row r="133" spans="9:15">
+    <row r="133" spans="1:15">
+      <c r="A133" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C133" s="2">
+        <v>255</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
@@ -5272,7 +5479,22 @@
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="9:15">
+    <row r="134" spans="1:15">
+      <c r="A134" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E134" s="3"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
@@ -5281,19 +5503,86 @@
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
     </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" s="2">
+        <v>11</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C136" s="2">
+        <v>255</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C137" s="2">
+        <v>11</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="I111:O111"/>
-    <mergeCell ref="I124:O124"/>
-    <mergeCell ref="A100:G100"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="I55:O55"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="I71:O71"/>
-    <mergeCell ref="I85:O85"/>
-    <mergeCell ref="I100:O100"/>
+  <mergeCells count="22">
+    <mergeCell ref="A129:G129"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:G10"/>
@@ -5304,6 +5593,17 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="I31:O31"/>
     <mergeCell ref="I42:O42"/>
+    <mergeCell ref="I55:O55"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="I71:O71"/>
+    <mergeCell ref="I85:O85"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="I111:O111"/>
+    <mergeCell ref="I124:O124"/>
+    <mergeCell ref="A100:G100"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="I100:O100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/com/cn/file/专属女朋友(2).xlsx
+++ b/src/main/java/com/cn/file/专属女朋友(2).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java开发\eclipse\com.cn.IDEA\desc\src\main\java\com\cn\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D84EC3-16CA-4B5B-B607-64F37EAEE568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="258">
   <si>
     <t>用户表(user)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -381,10 +387,6 @@
   </si>
   <si>
     <t>did</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1021,10 +1023,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发送状态（成功、失败）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>传输类型表(transportType)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1133,43 +1131,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账单记录信息表(billingRecords)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_money</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>double/bigdemer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单记录金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单记录内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_state</t>
+    <t>发送状态（成功、失败、待发送）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gl_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>img</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_id</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1189,76 +1187,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>账单状态(有效,无效)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作人编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到信息表(signin)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_money</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到赠送金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到状态(已签到,未签到)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币数据表(gold)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
+    <t>fk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户服饰编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>f</t>
+      <t>u</t>
     </r>
     <r>
       <rPr>
@@ -1268,60 +1206,52 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>k</t>
+      <t>_img</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>用户头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>用户编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_money</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币状态(已获得,未获得,限时,失效)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币使用类型(活动,都可以用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_tapy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_astrict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币限制(多少能用,那些操作能使用)</t>
+    <t>u_id1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1487,7 +1417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1516,6 +1446,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1845,29 +1781,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.75" bestFit="1" customWidth="1"/>
@@ -1877,18 +1813,18 @@
     <col min="15" max="15" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1911,7 +1847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1932,7 +1868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1953,7 +1889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1972,7 +1908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1988,17 +1924,17 @@
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2036,7 +1972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2064,7 +2000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I9" s="3" t="s">
         <v>48</v>
       </c>
@@ -2085,16 +2021,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
       <c r="I10" s="3" t="s">
         <v>49</v>
       </c>
@@ -2115,7 +2051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2145,7 +2081,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -2166,7 +2102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2187,7 +2123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -2206,7 +2142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -2223,7 +2159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2231,17 +2167,17 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2264,7 +2200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I18" s="3" t="s">
         <v>47</v>
       </c>
@@ -2285,16 +2221,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
       <c r="I19" s="3" t="s">
         <v>48</v>
       </c>
@@ -2315,7 +2251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2357,7 +2293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -2385,7 +2321,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -2406,7 +2342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -2425,7 +2361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -2442,7 +2378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -2463,7 +2399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -2484,7 +2420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="14.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
@@ -2493,48 +2429,48 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="10" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="I31" s="10" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="I31" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -2578,7 +2514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2618,64 +2554,60 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="2">
-        <v>128</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="3" t="s">
-        <v>59</v>
+      <c r="G34" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K34" s="2">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="M34" s="3"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="2">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>14</v>
@@ -2684,34 +2616,34 @@
         <v>255</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="2"/>
       <c r="O35" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="2">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>14</v>
@@ -2725,12 +2657,12 @@
       <c r="M36" s="3"/>
       <c r="N36" s="2"/>
       <c r="O36" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>14</v>
@@ -2739,15 +2671,15 @@
         <v>255</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>14</v>
@@ -2761,12 +2693,12 @@
       <c r="M37" s="3"/>
       <c r="N37" s="2"/>
       <c r="O37" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>14</v>
@@ -2780,29 +2712,27 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="2">
-        <v>255</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K38" s="2"/>
       <c r="L38" s="3" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="2"/>
       <c r="O38" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>14</v>
@@ -2816,51 +2746,38 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C40" s="2">
+        <v>255</v>
+      </c>
       <c r="D40" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>73</v>
@@ -2872,40 +2789,29 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="2">
-        <v>255</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="12"/>
-    </row>
-    <row r="43" spans="1:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>14</v>
@@ -2919,33 +2825,21 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>77</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>14</v>
@@ -2959,82 +2853,86 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" s="2">
-        <v>11</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>79</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C45" s="2">
+        <v>255</v>
+      </c>
       <c r="D45" s="3" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K45" s="2">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M45" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="3" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>14</v>
@@ -3043,24 +2941,34 @@
         <v>255</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="2"/>
       <c r="O46" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="I47" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>14</v>
@@ -3074,25 +2982,33 @@
       <c r="M47" s="3"/>
       <c r="N47" s="2"/>
       <c r="O47" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="I48" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K48" s="2">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>63</v>
@@ -3100,238 +3016,246 @@
       <c r="M48" s="3"/>
       <c r="N48" s="2"/>
       <c r="O48" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="K49" s="2">
+        <v>11</v>
+      </c>
       <c r="L49" s="3" t="s">
         <v>63</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="2"/>
       <c r="O49" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I50" s="3" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="2">
-        <v>255</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K50" s="2"/>
       <c r="L50" s="3" t="s">
         <v>63</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="2"/>
       <c r="O50" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="I51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="2">
+        <v>255</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="M51" s="3"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="3" t="s">
+      <c r="O51" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="K52" s="10">
+        <v>11</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="M52" s="11"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C53" s="2">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="2">
-        <v>255</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="3"/>
       <c r="F53" s="2"/>
       <c r="G53" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C54" s="2">
+        <v>255</v>
+      </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="2"/>
       <c r="G54" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C55" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="2"/>
       <c r="G55" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="12"/>
-    </row>
-    <row r="56" spans="1:15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="2"/>
       <c r="G56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I56" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="14"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2">
+        <v>255</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
-      <c r="I57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K57" s="2">
-        <v>11</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="G57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -3340,636 +3264,669 @@
       <c r="F58" s="2"/>
       <c r="G58" s="3"/>
       <c r="I58" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K58" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="K58" s="2">
+        <v>11</v>
+      </c>
       <c r="L58" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M58" s="3"/>
       <c r="N58" s="2"/>
       <c r="O58" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="3"/>
       <c r="I59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="2"/>
       <c r="O59" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I60" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J60" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="K60" s="2">
-        <v>11</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="2"/>
       <c r="O60" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I61" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K61" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="K61" s="2">
+        <v>11</v>
+      </c>
       <c r="L61" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="2"/>
       <c r="O61" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14"/>
       <c r="I62" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M62" s="3"/>
       <c r="N62" s="2"/>
       <c r="O62" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C63" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K63" s="2">
-        <v>11</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="2"/>
       <c r="O63" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C64" s="2">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E64" s="3"/>
       <c r="F64" s="2"/>
       <c r="G64" s="3" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J64" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K64" s="2">
+        <v>11</v>
+      </c>
+      <c r="L64" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="K64" s="2">
-        <v>11</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="2"/>
       <c r="O64" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="2">
+        <v>255</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="2"/>
       <c r="G65" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J65" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K65" s="2">
+        <v>11</v>
+      </c>
+      <c r="L65" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="K65" s="2">
-        <v>11</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="2"/>
       <c r="O65" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="2">
-        <v>11</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="2"/>
       <c r="G66" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K66" s="2">
+        <v>11</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="M66" s="3"/>
       <c r="N66" s="2"/>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="O66" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
       <c r="G67" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>141</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="K67" s="10">
+        <v>11</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="M67" s="11"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C68" s="2">
         <v>255</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="2"/>
       <c r="G68" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="14.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="2">
+        <v>255</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="I71" s="10" t="s">
+      <c r="G69" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="10">
+        <v>11</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I72" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="14"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="14"/>
+      <c r="I73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="12"/>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
-      <c r="I72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J73" s="3" t="s">
+      <c r="J74" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K74" s="2">
+        <v>11</v>
+      </c>
+      <c r="L74" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K73" s="2">
-        <v>11</v>
-      </c>
-      <c r="L73" s="3" t="s">
+      <c r="M74" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M73" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K74" s="2">
-        <v>255</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M74" s="3"/>
       <c r="N74" s="2"/>
       <c r="O74" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E75" s="3"/>
       <c r="F75" s="2"/>
       <c r="G75" s="3" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K75" s="2">
         <v>255</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="2"/>
       <c r="O75" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C76" s="2">
+        <v>255</v>
+      </c>
       <c r="D76" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="2"/>
       <c r="G76" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K76" s="2">
         <v>255</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M76" s="3"/>
       <c r="N76" s="2"/>
       <c r="O76" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="2"/>
       <c r="G77" s="3" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K77" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="K77" s="2">
+        <v>255</v>
+      </c>
       <c r="L77" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M77" s="3"/>
       <c r="N77" s="2"/>
       <c r="O77" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="2"/>
       <c r="G78" s="3" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="J78" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="K78" s="2">
-        <v>11</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="M78" s="3"/>
       <c r="N78" s="2"/>
       <c r="O78" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79" s="2">
-        <v>255</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="2"/>
       <c r="G79" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J79" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K79" s="2">
+        <v>11</v>
+      </c>
+      <c r="L79" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="K79" s="2">
-        <v>11</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="M79" s="3"/>
       <c r="N79" s="2"/>
       <c r="O79" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C80" s="2">
+        <v>255</v>
+      </c>
       <c r="D80" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="2"/>
       <c r="G80" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K80" s="2">
+        <v>11</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="M80" s="3"/>
       <c r="N80" s="2"/>
-      <c r="O80" s="3"/>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="O80" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="2"/>
       <c r="G81" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -3979,184 +3936,192 @@
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="14.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="C82" s="2"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:15" ht="14.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="10" t="s">
+      <c r="G82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" s="10">
+        <v>11</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" s="10">
+        <v>11</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="14"/>
+      <c r="I86" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="14"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="12"/>
-      <c r="I85" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="12"/>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="2">
+        <v>11</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C87" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K87" s="2">
-        <v>11</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C88" s="2">
-        <v>255</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E88" s="3"/>
       <c r="F88" s="2"/>
       <c r="G88" s="3" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K88" s="2">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M88" s="3"/>
+      <c r="M88" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N88" s="2"/>
-      <c r="O88" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="O88" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C89" s="2">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="2"/>
       <c r="G89" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>14</v>
@@ -4170,29 +4135,29 @@
       <c r="M89" s="3"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2">
         <v>64</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="2"/>
       <c r="G90" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>14</v>
@@ -4206,103 +4171,105 @@
       <c r="M90" s="3"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2">
         <v>64</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="3" t="s">
-        <v>183</v>
+      <c r="G91" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K91" s="2"/>
+      <c r="K91" s="2">
+        <v>255</v>
+      </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M91" s="3"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" s="2">
+        <v>64</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C92" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="3" t="s">
-        <v>185</v>
+      <c r="G92" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K92" s="2">
-        <v>255</v>
-      </c>
+      <c r="K92" s="2"/>
       <c r="L92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M92" s="3"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C93" s="2">
+        <v>11</v>
+      </c>
       <c r="D93" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="2"/>
       <c r="G93" s="3" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K93" s="2">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>10</v>
@@ -4313,224 +4280,209 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C94" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="2"/>
       <c r="G94" s="3" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K94" s="2"/>
-      <c r="L94" s="3"/>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="M94" s="3"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="2">
+        <v>11</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C95" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="2"/>
       <c r="G95" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="10">
+        <v>255</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="2">
+        <v>11</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C98" s="10">
+        <v>11</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E98" s="11"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="18" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" ht="14.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="16" t="s">
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="14"/>
+      <c r="I102" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="14"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="12"/>
-      <c r="I100" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="12"/>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="2"/>
-      <c r="G102" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K102" s="2">
-        <v>11</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="2">
-        <v>255</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K103" s="2">
-        <v>255</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M103" s="3"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="2">
@@ -4539,34 +4491,36 @@
       <c r="D104" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>219</v>
+      <c r="E104" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F104" s="2"/>
-      <c r="G104" s="2" t="s">
-        <v>242</v>
+      <c r="G104" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="K104" s="2">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M104" s="2"/>
+      <c r="M104" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N104" s="2"/>
-      <c r="O104" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="O104" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>14</v>
@@ -4580,67 +4534,73 @@
       <c r="E105" s="3"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K105" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="K105" s="2">
+        <v>255</v>
+      </c>
       <c r="L105" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M105" s="3"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="2">
+        <v>11</v>
+      </c>
       <c r="D106" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="3"/>
+      <c r="E106" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J106" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="K106" s="4">
-        <v>11</v>
-      </c>
-      <c r="L106" s="5" t="s">
+      <c r="I106" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K106" s="2">
+        <v>255</v>
+      </c>
+      <c r="L106" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M106" s="5"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C107" s="2">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>10</v>
@@ -4648,653 +4608,193 @@
       <c r="E107" s="3"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I107" s="6"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-    </row>
-    <row r="108" spans="1:15">
+        <v>214</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K107" s="2"/>
+      <c r="L107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M107" s="3"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="2">
-        <v>11</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I108" s="8"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-    </row>
-    <row r="109" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K108" s="4">
+        <v>11</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M108" s="5"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C109" s="2">
         <v>11</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="D109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="3"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-    </row>
-    <row r="110" spans="1:15">
+        <v>241</v>
+      </c>
+      <c r="I109" s="6"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C110" s="2">
         <v>11</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="D110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="3"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
         <v>225</v>
       </c>
       <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
+      <c r="J110" s="9"/>
       <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
     </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="2">
+        <v>11</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="F111" s="2"/>
-      <c r="G111" s="3"/>
-      <c r="I111" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="12"/>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="I112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="I113" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K113" s="2">
-        <v>11</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="12"/>
-      <c r="I114" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K114" s="2"/>
-      <c r="L114" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M114" s="3"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K115" s="2">
-        <v>255</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="A116" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="2"/>
-      <c r="G116" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M116" s="3"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K117" s="2"/>
-      <c r="L117" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M117" s="3"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C118" s="2">
-        <v>255</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="J118" s="2" t="s">
+      <c r="G111" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="2">
+        <v>11</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K118" s="2">
-        <v>11</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M118" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K119" s="2"/>
-      <c r="L119" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M119" s="3"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C121" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="I124" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
-      <c r="N124" s="11"/>
-      <c r="O124" s="12"/>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="3"/>
-      <c r="I125" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="I126" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K126" s="2">
-        <v>11</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="I127" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K127" s="2">
-        <v>11</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="M127" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="I128" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K128" s="2"/>
-      <c r="L128" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M128" s="3"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="129" spans="9:15">
-      <c r="I129" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M129" s="3"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="130" spans="9:15">
-      <c r="I130" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K130" s="2"/>
-      <c r="L130" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M130" s="3"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="131" spans="9:15">
-      <c r="I131" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K131" s="2">
-        <v>11</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="132" spans="9:15">
-      <c r="I132" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K132" s="2">
-        <v>255</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="133" spans="9:15">
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-    </row>
-    <row r="134" spans="9:15">
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
+      <c r="E112" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="3"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="I111:O111"/>
-    <mergeCell ref="I124:O124"/>
-    <mergeCell ref="A100:G100"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="I55:O55"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="I71:O71"/>
-    <mergeCell ref="I85:O85"/>
-    <mergeCell ref="I100:O100"/>
-    <mergeCell ref="A50:G50"/>
+  <mergeCells count="18">
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="I56:O56"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="I72:O72"/>
+    <mergeCell ref="I86:O86"/>
+    <mergeCell ref="I102:O102"/>
+    <mergeCell ref="A51:G51"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="I6:O6"/>
@@ -5303,7 +4803,7 @@
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="I31:O31"/>
-    <mergeCell ref="I42:O42"/>
+    <mergeCell ref="I43:O43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5312,12 +4812,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/com/cn/file/专属女朋友(2).xlsx
+++ b/src/main/java/com/cn/file/专属女朋友(2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java开发\eclipse\com.cn.IDEA\desc\src\main\java\com\cn\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D84EC3-16CA-4B5B-B607-64F37EAEE568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B272F6EE-1996-4AE1-BA89-CA0C5A8381A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="273">
   <si>
     <t>用户表(user)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1244,6 +1244,78 @@
   </si>
   <si>
     <t>用户编号2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息队列存储数据表(queueStorage)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qs_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qs_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uidprint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uidclint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qsstate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息队列存储数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送状态（发送成功，发送失败）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qs_createtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qstype</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看状态（已查看，未查看）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1454,13 +1526,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,9 +1545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1789,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q113"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:O39"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1814,15 +1886,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1924,15 +1996,15 @@
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -2022,7 +2094,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="13"/>
@@ -2167,15 +2239,15 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I17" s="1" t="s">
@@ -2222,7 +2294,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="13"/>
@@ -2430,28 +2502,28 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="13"/>
@@ -2460,7 +2532,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="12" t="s">
         <v>83</v>
       </c>
       <c r="J31" s="13"/>
@@ -2827,7 +2899,7 @@
       <c r="G43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="15" t="s">
         <v>189</v>
       </c>
       <c r="J43" s="13"/>
@@ -3063,7 +3135,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="13"/>
@@ -3205,7 +3277,7 @@
       <c r="G56" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="15" t="s">
         <v>120</v>
       </c>
       <c r="J56" s="13"/>
@@ -3344,7 +3416,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B62" s="13"/>
@@ -3618,7 +3690,7 @@
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="15" t="s">
         <v>160</v>
       </c>
       <c r="J72" s="13"/>
@@ -3629,7 +3701,7 @@
       <c r="O72" s="14"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="12" t="s">
         <v>190</v>
       </c>
       <c r="B73" s="13"/>
@@ -3999,7 +4071,7 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="15" t="s">
         <v>172</v>
       </c>
       <c r="B86" s="13"/>
@@ -4008,7 +4080,7 @@
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="14"/>
-      <c r="I86" s="18" t="s">
+      <c r="I86" s="12" t="s">
         <v>191</v>
       </c>
       <c r="J86" s="13"/>
@@ -4415,7 +4487,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="12" t="s">
         <v>209</v>
       </c>
       <c r="B102" s="13"/>
@@ -4424,7 +4496,7 @@
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
       <c r="G102" s="14"/>
-      <c r="I102" s="18" t="s">
+      <c r="I102" s="12" t="s">
         <v>226</v>
       </c>
       <c r="J102" s="13"/>
@@ -4784,16 +4856,189 @@
       <c r="N113" s="8"/>
       <c r="O113" s="9"/>
     </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="14"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="2">
+        <v>11</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C118" s="2">
+        <v>255</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="2">
+        <v>255</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="2">
+        <v>11</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C123" s="6">
+        <v>11</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" s="6"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="I56:O56"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="I72:O72"/>
-    <mergeCell ref="I86:O86"/>
-    <mergeCell ref="I102:O102"/>
+  <mergeCells count="19">
+    <mergeCell ref="A115:G115"/>
     <mergeCell ref="A51:G51"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:G10"/>
@@ -4804,6 +5049,14 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="I31:O31"/>
     <mergeCell ref="I43:O43"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="I56:O56"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="I72:O72"/>
+    <mergeCell ref="I86:O86"/>
+    <mergeCell ref="I102:O102"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
